--- a/javatwitter.xlsx
+++ b/javatwitter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9748e967f432a19c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66141BC2-DF33-4DDF-8175-983E453344AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{66141BC2-DF33-4DDF-8175-983E453344AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D81F6005-E3A3-4C46-825F-82E5D3525443}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{FB41F1FB-9862-4DDE-BA59-411B2E180C42}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>postid</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>text - password</t>
+  </si>
+  <si>
+    <t>emailaddress</t>
   </si>
 </sst>
 </file>
@@ -237,14 +240,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5B1784-3163-49E4-A6AA-E77522C586A0}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,16 +574,16 @@
     <col min="7" max="7" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -596,7 +599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -616,7 +619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -629,14 +632,14 @@
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>43925.423668750002</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>43925.424409722225</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -649,19 +652,19 @@
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>43925.426886574074</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>43925.426886574074</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -686,42 +689,48 @@
       <c r="I8" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="J8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -734,7 +743,7 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>43925.382002314815</v>
       </c>
       <c r="G11" t="b">
@@ -744,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -757,7 +766,7 @@
       <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>43925.382696759261</v>
       </c>
       <c r="G12" t="b">
@@ -767,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -780,7 +789,7 @@
       <c r="E13" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>43925.384085648147</v>
       </c>
       <c r="G13" t="b">
@@ -790,16 +799,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -807,22 +816,22 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="C17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>

--- a/javatwitter.xlsx
+++ b/javatwitter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9748e967f432a19c/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andras\Group_MIA_MicroBlog_Java_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{66141BC2-DF33-4DDF-8175-983E453344AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D81F6005-E3A3-4C46-825F-82E5D3525443}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0C0911-7FDB-4C5F-91B7-A136533369A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{FB41F1FB-9862-4DDE-BA59-411B2E180C42}"/>
+    <workbookView xWindow="-26808" yWindow="1404" windowWidth="23040" windowHeight="12156" xr2:uid="{FB41F1FB-9862-4DDE-BA59-411B2E180C42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,56 +31,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
-  <si>
-    <t>postid</t>
-  </si>
-  <si>
-    <t>userid</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>text</t>
   </si>
   <si>
-    <t>isdeleted</t>
-  </si>
-  <si>
-    <t>created</t>
-  </si>
-  <si>
-    <t>modified</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
     <t>long text</t>
   </si>
   <si>
-    <t>posts</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>surrname</t>
-  </si>
-  <si>
-    <t>forename</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
-    <t>followtable</t>
-  </si>
-  <si>
-    <t>ownerid</t>
-  </si>
-  <si>
     <t>pid00000001</t>
   </si>
   <si>
@@ -99,18 +63,6 @@
     <t>hi</t>
   </si>
   <si>
-    <t>kowalski</t>
-  </si>
-  <si>
-    <t>mittal</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>marek</t>
-  </si>
-  <si>
     <t>mkow</t>
   </si>
   <si>
@@ -120,31 +72,37 @@
     <t>user3</t>
   </si>
   <si>
-    <t>watson</t>
-  </si>
-  <si>
-    <t>jack</t>
-  </si>
-  <si>
     <t>jwatt</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>nr incremental</t>
-  </si>
-  <si>
-    <t>isblocked</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>text - password</t>
   </si>
   <si>
-    <t>emailaddress</t>
+    <t>post_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>date_added</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>userpassword</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>followerslist</t>
+  </si>
+  <si>
+    <t>follower_id</t>
   </si>
 </sst>
 </file>
@@ -562,306 +520,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5B1784-3163-49E4-A6AA-E77522C586A0}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7">
+        <v>43925.424409722225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="E6" s="7">
+        <v>43925.426886574074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="b">
+      <c r="C9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="7">
-        <v>43925.423668750002</v>
-      </c>
-      <c r="G5" s="7">
-        <v>43925.424409722225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="b">
+      <c r="D9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="7">
-        <v>43925.426886574074</v>
-      </c>
-      <c r="G6" s="7">
-        <v>43925.426886574074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="7">
-        <v>43925.382002314815</v>
-      </c>
-      <c r="G11" t="b">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H11" t="b">
+      <c r="C17" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="7">
-        <v>43925.382696759261</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="7">
-        <v>43925.384085648147</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>1</v>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
